--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe monitoring tools in Azure.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe monitoring tools in Azure.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E9EDF-A02D-47C4-8E9A-96585FDBD804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DE67D-BAE4-404E-9C45-F3176A36F4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11565" yWindow="1515" windowWidth="17460" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="purpose of Azure Advisor" sheetId="1" r:id="rId1"/>
@@ -254,10 +254,191 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>560305</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>18262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB21799E-5258-634A-0B1D-39BAA5FA0DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8191500"/>
+          <a:ext cx="13361905" cy="6304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>75905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F48F57-0430-A8AF-5580-ADF943162434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14859000"/>
+          <a:ext cx="11200000" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>398543</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="12057143" cy="5819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>398543</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="3810000"/>
+          <a:ext cx="12057143" cy="5819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -398,13 +579,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -451,6 +632,226 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="2143125"/>
+          <a:ext cx="13361905" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="4286250"/>
+          <a:ext cx="13361905" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17383125"/>
+          <a:ext cx="13361905" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>104315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="29765625"/>
+          <a:ext cx="13361905" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>207981</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>237887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19526250"/>
+          <a:ext cx="12552381" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -723,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,15 +1226,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,68 +1275,68 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="B76" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="B98" t="s">
+    <row r="120" spans="1:2">
+      <c r="B120" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="B99" t="s">
+    <row r="121" spans="1:2">
+      <c r="B121" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="B101" t="s">
+    <row r="123" spans="1:2">
+      <c r="B123" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="B102" t="s">
+    <row r="124" spans="1:2">
+      <c r="B124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="B103" t="s">
+    <row r="125" spans="1:2">
+      <c r="B125" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="B106" t="s">
+    <row r="128" spans="1:2">
+      <c r="B128" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="B108" t="s">
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="C109" t="s">
+    <row r="131" spans="2:3">
+      <c r="C131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="C110" t="s">
+    <row r="132" spans="2:3">
+      <c r="C132" t="s">
         <v>32</v>
       </c>
     </row>
